--- a/biology/Médecine/Institut_de_recherche_biomédicale_des_armées/Institut_de_recherche_biomédicale_des_armées.xlsx
+++ b/biology/Médecine/Institut_de_recherche_biomédicale_des_armées/Institut_de_recherche_biomédicale_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut de recherche biomédicale des armées (IRBA) est un établissement du service de santé des armées (SSA). 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’IRBA a été créé le 1er mars 2009[2] sur décision du ministre de la Défense. La création de l'institut résulte du regroupement sur un site unique et modernisé des différents centres de recherche du SSA  :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’IRBA a été créé le 1er mars 2009 sur décision du ministre de la Défense. La création de l'institut résulte du regroupement sur un site unique et modernisé des différents centres de recherche du SSA  :
 le CRSSA (Centre de recherches du service de santé des armées) à La Tronche (38), fermé en juin 2013 ;
 l'IMTSSA (Institut de médecine tropicale du service de santé des armées) à Marseille, fermé en juin 2013 ;
 l'IMNSSA (Institut de médecine navale du service de santé des armées) à Toulon, fermé en juillet 2011 ;
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,15 +570,87 @@
           <t>Compétences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périmètre de la recherche biomédicale de défense et ses orientations sont définies par le conseil d’orientation de la recherche réunissant des représentants des états-majors des corps d’armée, de la direction générale de l’armement et de la direction du service de santé des armées. Les priorités de ses trois composantes (recherche et innovation, expertise, formation) évoluent en fonction des contextes géopolitiques et géostratégiques.
 Le champ de compétence de l’IRBA est très étendu. Il couvre les sciences du vivant (physiologie, biologie, neurosciences…), les sciences de l’ingénieur (instrumentation, mécanique des milieux complexes, systèmes d’information, ergonomie…) et les sciences humaines et sociales (psychologie…). Les travaux interviennent sur les plans médical, médico-opérationnel, éthique et juridique.
 Initialement menés pour les Forces, les travaux scientifiques de l’IRBA profitent à la recherche nationale et participent ainsi directement aux avancées de santé publique.
-Recherche
-La fonction recherche du SSA a pour finalité de combler les lacunes scientifiques et techniques du soutien santé des Forces pour in fine assurer la sécurité du combattant et maintenir ses capacités opérationnelles. Pour cela, elle doit améliorer les connaissances biomédicales dans les domaines spécifiques du monde militaire et mettre à la disposition des forces armées des experts de haut niveau. Ces experts répondent en tous temps et en tous lieux aux besoins liés à la prévention des risques pour la santé des militaires.
-Expertise
-L’IRBA intervient en qualité d’expert auprès des forces, de l’Otan et d’institutions internationales comme l'OMS, dans le cadre d’études prospectives de développement de programmes d’équipement des forces, d’analyse de programmes d’entraînement du militaire et de situations exceptionnelles qui engagent la santé des militaires en opération et celles des populations civiles. L’IRBA conduit en relation avec les forces et les industriels de nombreuses expérimentations de terrain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Compétences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fonction recherche du SSA a pour finalité de combler les lacunes scientifiques et techniques du soutien santé des Forces pour in fine assurer la sécurité du combattant et maintenir ses capacités opérationnelles. Pour cela, elle doit améliorer les connaissances biomédicales dans les domaines spécifiques du monde militaire et mettre à la disposition des forces armées des experts de haut niveau. Ces experts répondent en tous temps et en tous lieux aux besoins liés à la prévention des risques pour la santé des militaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Compétences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expertise</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’IRBA intervient en qualité d’expert auprès des forces, de l’Otan et d’institutions internationales comme l'OMS, dans le cadre d’études prospectives de développement de programmes d’équipement des forces, d’analyse de programmes d’entraînement du militaire et de situations exceptionnelles qui engagent la santé des militaires en opération et celles des populations civiles. L’IRBA conduit en relation avec les forces et les industriels de nombreuses expérimentations de terrain.
 L’IRBA dispose d’une renommée internationalement reconnue dans le domaine recherche et de l’expertise en microbiologie et maladies infectieuses. Cette expertise est valorisée au travers des quatre mandats de centres nationaux de référence (CNR) détenus :
 charbon CNR-LE charbon (site de Brétigny-Orge) ;
 orthopoxvirus CNR-LE orthopoxvirus (site de Brétigny-Orge) ;
@@ -572,80 +658,188 @@
 paludisme CNR paludisme (antenne de Marseille – IHU Méditerranée Infection).
 Cette capacité d'expertise peut être mise au service de la société civile lors de situations de crise sanitaire qui engagent la sécurité de la population (risque NRBC4, 5, maladies tropicales 6). Par ses chercheurs experts, il contribue à la fonction stratégique de défense « Connaissance et anticipation », fonction éprouvée dans le cadre de la crise Covid-19. 
 Depuis 2012, l'IRBA a rejoint l'Alliance nationale pour les sciences de la vie et de la santé (Aviesan) en tant que membre associé. 
-Formation
-Des formations sur des thèmes spécifiques (biosécurité, médecine aéronautique, crew ressource management) sont dispensées aux personnels du SSA, du ministère des Armées, aux acteurs de la santé, de la Sécurité civile et à des chercheurs étrangers dans le cadre d'accords de coopération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Compétences</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des formations sur des thèmes spécifiques (biosécurité, médecine aéronautique, crew ressource management) sont dispensées aux personnels du SSA, du ministère des Armées, aux acteurs de la santé, de la Sécurité civile et à des chercheurs étrangers dans le cadre d'accords de coopération.
 L’IRBA forme également chaque année des étudiants militaires et civils (doctorat, apprentissage).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L’IRBA dispose de deux divisions scientifiques. Chacune travaillant sur différentes thématiques de recherche.    
-Division santé du militaire
-Adaptation aux contraintes perceptives des systèmes opérationnels, ergonomie cognitive pour la conception et la sécurité intégrée des systèmes.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’IRBA dispose de deux divisions scientifiques. Chacune travaillant sur différentes thématiques de recherche.    
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Division santé du militaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Adaptation aux contraintes perceptives des systèmes opérationnels, ergonomie cognitive pour la conception et la sécurité intégrée des systèmes.
 Optimisation des réponses à l’entraînement physique et à la tolérance du port de charges lourdes.
 Étude des réponses adaptatives aux environnements extrêmes (milieux d’emploi subaquatique, aéronautique et climats contraignants).
 Prévention des conséquences de la fatigue, gestion du rythme veille-sommeil.
 Neurobiologie des états de stress, prévention de leurs conséquences.
 Développement de contre-mesures médicales pour les pathologies traumatiques de terrain ,amélioration des protections balistiques.
-Médecine régénérative et translationnelle (thérapie cellulaire et réparation tissulaire).
-Division Défense NRBC
-Risque nucléaire et radiologique : étude des effets biologiques des rayonnements ionisants et développement de contre-mesures médicales, étude du risque des technologies émergentes : rayonnements électromagnétiques, micro et nano particules.
+Médecine régénérative et translationnelle (thérapie cellulaire et réparation tissulaire).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Division Défense NRBC</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Risque nucléaire et radiologique : étude des effets biologiques des rayonnements ionisants et développement de contre-mesures médicales, étude du risque des technologies émergentes : rayonnements électromagnétiques, micro et nano particules.
 Risque biologique : étude de la biologie des agents transmissibles pathogènes (menaces virales, bactériennes, parasitaires) et des vecteurs de transmission des maladies, développement de contre-mesures médicales.
 Risque chimique : étude des effets des agents chimiques vésicants et neurotoxiques organophosphorés et développement de contre-mesures médicales.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Institut_de_recherche_biomédicale_des_armées</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_de_recherche_biom%C3%A9dicale_des_arm%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Moyens d'expérimentation prévus à la fin de la construction de l'IRBA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L’ensemble des plateaux techniques et moyens d’essais de l’IRBA couvre une large gamme d’études et d’essai dans de nombreux domaines : 
 perception sensorielle : salle des bancs optiques, chambres anéchoïque et réverbérante, équipement de vision de nuit, générateur d’illusions sensorielles
